--- a/biology/Botanique/Spiraea_japonica/Spiraea_japonica.xlsx
+++ b/biology/Botanique/Spiraea_japonica/Spiraea_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spirée du Japon
-Spiraea japonica, la Spirée du Japon, est une espèce de plantes à fleurs du genre Spiraea[1] et de la famille des Rosacées. Il s'agit d'un buisson pouvant atteindre 1,2 à 2 m de haut. Les feuilles caduques alternées sont généralement ovales et mesurent de 2,5 à 7,5 cm de long, avec des bords dentés. Elle possède des inflorescence de fleurs roses[2].
+Spiraea japonica, la Spirée du Japon, est une espèce de plantes à fleurs du genre Spiraea et de la famille des Rosacées. Il s'agit d'un buisson pouvant atteindre 1,2 à 2 m de haut. Les feuilles caduques alternées sont généralement ovales et mesurent de 2,5 à 7,5 cm de long, avec des bords dentés. Elle possède des inflorescence de fleurs roses.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Spirée du Japon est originaire d'Asie de l'Est (Japon, Chine, Corée). Elle a été introduite en Europe et en Amérique du Nord comme plante ornementale, et y est maintenant considérée comme invasive[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Spirée du Japon est originaire d'Asie de l'Est (Japon, Chine, Corée). Elle a été introduite en Europe et en Amérique du Nord comme plante ornementale, et y est maintenant considérée comme invasive.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Spirée du Japon préfère les habitats humides et ensoleillés, mais peut se satisfaire d'une certaine ombre. On la trouve souvent le long des ruisseaux, dans les tourbières, en bordure de forêt où dans les clairières[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Spirée du Japon préfère les habitats humides et ensoleillés, mais peut se satisfaire d'une certaine ombre. On la trouve souvent le long des ruisseaux, dans les tourbières, en bordure de forêt où dans les clairières.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Cultivar</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Spiraea japonica 'Goldflame' - habitus.
